--- a/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
@@ -8,28 +8,94 @@
   </bookViews>
   <sheets>
     <sheet name="Item.tpl" sheetId="1" r:id="rId1"/>
-    <sheet name="随便写的" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
-  <si>
-    <t>道具编号[不可重复]</t>
-  </si>
-  <si>
-    <t>道具名称</t>
-  </si>
-  <si>
-    <t>使用后导致的角色属性变更</t>
-  </si>
-  <si>
-    <t>叠加上限</t>
-  </si>
-  <si>
-    <t>道具说明</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可重复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用（或装备）后导致的角色属性变更</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叠加上限</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具说明</t>
+    </r>
   </si>
   <si>
     <t>int</t>
@@ -62,22 +128,87 @@
     <t>maxAmount</t>
   </si>
   <si>
-    <t>小血瓶</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小血瓶</t>
+    </r>
   </si>
   <si>
     <t>{"CURRENT_HP":50}</t>
   </si>
   <si>
-    <t>使用后恢复一定血量</t>
-  </si>
-  <si>
-    <t>小蓝瓶</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用后恢复一定血量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小蓝瓶</t>
+    </r>
   </si>
   <si>
     <t>{"CURRENT_MP":20}</t>
   </si>
   <si>
-    <t>使用后恢复一定蓝量</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用后恢复一定蓝量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>木剑</t>
+    </r>
+  </si>
+  <si>
+    <t>{"ATTACK";20}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>草衣</t>
+    </r>
+  </si>
+  <si>
+    <t>{"DEFFENCT":10}</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>防具</t>
   </si>
 </sst>
 </file>
@@ -85,168 +216,191 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -263,31 +417,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,13 +567,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,127 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +639,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -496,35 +665,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +687,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,16 +725,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,167 +754,185 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,23 +1258,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="26.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="28" style="3" customWidth="1"/>
+    <col min="5" max="6" width="26.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:6">
+    <row r="1" s="1" customFormat="1" spans="2:7">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1115,29 +1288,30 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="2:7">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1146,109 +1320,128 @@
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="8">
+    <row r="5" spans="2:7">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="3">
-        <v>99</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+    <row r="8" ht="15.75" spans="2:7">
+      <c r="B8" s="14">
+        <v>10001</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+    <row r="9" ht="15.75" spans="2:7">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+    <row r="10" ht="15.75" spans="2:6">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+    <row r="11" ht="15.75" spans="2:6">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" ht="15.75" spans="2:6">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <r>
       <rPr>
@@ -87,6 +87,12 @@
     </r>
   </si>
   <si>
+    <t>物品类型</t>
+  </si>
+  <si>
+    <t>初始耐久度</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -107,6 +113,9 @@
     <t>json</t>
   </si>
   <si>
+    <t>enum</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -126,6 +135,12 @@
   </si>
   <si>
     <t>maxAmount</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>durability</t>
   </si>
   <si>
     <r>
@@ -142,6 +157,9 @@
     <t>{"CURRENT_HP":50}</t>
   </si>
   <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -192,6 +210,12 @@
     <t>{"ATTACK";20}</t>
   </si>
   <si>
+    <t>EQUIP</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -202,10 +226,7 @@
     </r>
   </si>
   <si>
-    <t>{"DEFFENCT":10}</t>
-  </si>
-  <si>
-    <t>武器</t>
+    <t>{"DEFFENCE":10}</t>
   </si>
   <si>
     <t>防具</t>
@@ -221,7 +242,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,14 +257,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -742,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,137 +780,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,12 +924,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,14 +954,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1258,24 +1290,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="28" style="3" customWidth="1"/>
-    <col min="5" max="6" width="26.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="26.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:7">
+    <row r="1" s="1" customFormat="1" spans="2:8">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1288,156 +1320,186 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:7">
+    <row r="2" s="1" customFormat="1" spans="2:8">
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="10">
+    <row r="5" spans="2:8">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>49</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>17</v>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="3">
         <v>49</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>20</v>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:8">
       <c r="B7" s="3">
         <v>10000</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" ht="15.75" spans="2:7">
-      <c r="B8" s="14">
+    <row r="8" ht="15.75" spans="2:8">
+      <c r="B8" s="16">
         <v>10001</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="C8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16" t="s">
-        <v>25</v>
+      <c r="F8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="2:7">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
-    <row r="10" ht="15.75" spans="2:6">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+    <row r="10" ht="15.75" spans="2:7">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
-    <row r="11" ht="15.75" spans="2:6">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+    <row r="11" ht="15.75" spans="2:7">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
-    <row r="12" ht="15.75" spans="2:6">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+    <row r="12" ht="15.75" spans="2:7">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22395" windowHeight="12195"/>
+    <workbookView windowWidth="26025" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Item.tpl" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <r>
       <rPr>
@@ -93,6 +93,9 @@
     <t>初始耐久度</t>
   </si>
   <si>
+    <t>装备类型</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -207,10 +210,13 @@
     </r>
   </si>
   <si>
-    <t>{"ATTACK";20}</t>
+    <t>{"ATTACK":20}</t>
   </si>
   <si>
     <t>EQUIP</t>
+  </si>
+  <si>
+    <t>WEAPON</t>
   </si>
   <si>
     <t>武器</t>
@@ -226,10 +232,25 @@
     </r>
   </si>
   <si>
-    <t>{"DEFFENCE":10}</t>
+    <t>{"DEFENCE":10}</t>
+  </si>
+  <si>
+    <t>ARMOR</t>
   </si>
   <si>
     <t>防具</t>
+  </si>
+  <si>
+    <t>铜剑</t>
+  </si>
+  <si>
+    <t>{"ATTACK":25}</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>{"DEFENCE":15}</t>
   </si>
 </sst>
 </file>
@@ -237,9 +258,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -273,6 +294,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -281,15 +307,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,15 +372,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +393,22 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,7 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,68 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -443,12 +464,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -461,25 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,139 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,35 +686,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,21 +708,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,11 +738,48 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,137 +801,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,12 +948,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,26 +960,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1290,24 +1299,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="28" style="3" customWidth="1"/>
     <col min="5" max="7" width="26.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="20" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:8">
+    <row r="1" s="1" customFormat="1" spans="2:9">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1326,180 +1336,234 @@
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:8">
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" spans="2:9">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="11">
+    <row r="5" spans="2:9">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="3">
         <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="3">
         <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9">
       <c r="B7" s="3">
         <v>10000</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" ht="15.75" spans="2:8">
-      <c r="B8" s="16">
+    <row r="8" ht="15.75" spans="2:9">
+      <c r="B8" s="10">
         <v>10001</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="12">
+        <v>100</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="2:9">
+      <c r="B9" s="10">
+        <v>10002</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12">
+        <v>100</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="I9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="17">
+    </row>
+    <row r="10" ht="15.75" spans="2:9">
+      <c r="B10" s="10">
+        <v>10003</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="15" t="s">
-        <v>33</v>
+      <c r="F10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="12">
+        <v>100</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:7">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+    <row r="11" ht="15.75" spans="2:8">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
-    <row r="10" ht="15.75" spans="2:7">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" ht="15.75" spans="2:7">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" ht="15.75" spans="2:7">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+    <row r="12" ht="15.75" spans="2:8">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <r>
       <rPr>
@@ -146,6 +146,9 @@
     <t>durability</t>
   </si>
   <si>
+    <t>equipType</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -258,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -307,51 +310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,43 +331,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,6 +385,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -435,11 +415,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,187 +467,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,26 +691,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,6 +703,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +741,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -759,40 +786,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,137 +804,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,9 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1401,26 +1401,28 @@
       <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3">
         <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1428,19 +1430,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -1448,122 +1450,122 @@
         <v>10000</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
         <v>100</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="14" t="s">
         <v>32</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="2:9">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>10001</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11">
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="11">
         <v>100</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>36</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="2:9">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>10002</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="11">
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11">
         <v>100</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>32</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="2:9">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>10003</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="11">
+      <c r="D10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11">
         <v>100</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>36</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:8">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.75" spans="2:8">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/container/ItemRes.xlsx
@@ -262,9 +262,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -303,14 +303,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,14 +339,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,19 +384,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,6 +407,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -396,51 +441,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,187 +467,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,6 +692,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -700,9 +709,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,30 +749,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -757,17 +759,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,151 +777,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1299,10 +1299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1558,15 +1558,6 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" ht="15.75" spans="2:8">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
